--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>33.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000778</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华先进制造股票</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>000778</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>鹏华先进制造股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.95</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>003298</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>嘉实物流产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003298</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实物流产业股票A</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>38.42</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010078</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时恒荣一年持有期混合A</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010079</t>
+          <t>001141</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时恒荣一年持有期混合C</t>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005281</t>
+          <t>001418</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中科沃土转型升级灵活配置混合</t>
+          <t>泰达宏利创益灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006724</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信深证红利ETF联接C</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001141</t>
+          <t>010078</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
+          <t>博时恒荣一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001142</t>
+          <t>002273</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
+          <t>泰达宏利创益灵活配置混合B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.75</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>35.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001418</t>
+          <t>001142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合A</t>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>33.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002273</t>
+          <t>010079</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利创益灵活配置混合B</t>
+          <t>博时恒荣一年持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35.27</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>8</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>006724</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>工银瑞信深证红利ETF联接C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>005281</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>中科沃土转型升级灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2170,4 +2171,1046 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9907</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4220</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3213,4 +3214,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3222,7 +3223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3233,17 +3234,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3253,14 +3274,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.48</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3269,14 +3312,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.55</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3285,14 +3350,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.74</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3301,13 +3388,567 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3847,7 +3848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3858,17 +3859,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3878,14 +3899,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.62</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3894,14 +3937,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.48</v>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3910,14 +3975,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.55</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3926,14 +4013,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.74</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3942,13 +4051,1153 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安鑫享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5080,7 +5081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5091,17 +5092,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5111,14 +5132,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.44</v>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5127,14 +5170,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.62</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5143,14 +5208,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.48</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5159,14 +5246,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.55</v>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1560</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5175,14 +5284,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.74</v>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5191,13 +5322,2383 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7589</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>16.57</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>4.44</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6.48</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2.55</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -600,6 +617,2000 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5057</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1810</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001157</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安睿祺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002485</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000664</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安通盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>38.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3083,7 +5094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4315,7 +6326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4939,7 +6950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5981,7 +7992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6683,7 +8694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7157,7 +9168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/601238-广汽集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.45</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>16.57</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>4.44</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>4.62</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>6.48</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>2.55</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.74</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -616,7 +633,1715 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160627</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006140</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发集嘉债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发集嘉债券C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +4335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5094,7 +6819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6326,7 +8051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6950,7 +8675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7992,7 +9717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8694,7 +10419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9166,554 +10891,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>880007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5326</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4646</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160627</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2297</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000778</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华先进制造股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2290</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003298</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>38.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003299</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实物流产业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>881007</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001474</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴银丰盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>